--- a/Plots and Tables/RVCAT/export_age1_annual_summary.xlsx
+++ b/Plots and Tables/RVCAT/export_age1_annual_summary.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">YEAR</t>
   </si>
   <si>
-    <t xml:space="preserve">Year class</t>
+    <t xml:space="preserve">survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites</t>
   </si>
   <si>
     <t xml:space="preserve">Bloater</t>
@@ -40,11 +43,20 @@
   <si>
     <t xml:space="preserve">siscowet Lake Trout</t>
   </si>
+  <si>
+    <t xml:space="preserve">Year class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nearshore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offshore</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -363,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -398,894 +410,1682 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1978</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2" t="n">
+        <v>83.85</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" t="n">
         <v>1977</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.622</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1979</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H3" t="n">
+        <v>216.06</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" t="n">
         <v>1978</v>
       </c>
-      <c r="C3" t="n">
-        <v>30.081</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="G3" t="n">
-        <v>234.142</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1980</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>89.18</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" t="n">
         <v>1979</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.571</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.109</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.971</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1981</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H5" t="n">
+        <v>110.51</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5" t="n">
         <v>1980</v>
       </c>
-      <c r="C5" t="n">
-        <v>7.144</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1982</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H6" t="n">
+        <v>63.81</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6" t="n">
         <v>1981</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.749</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.155</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1983</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" t="n">
         <v>1982</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.823</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1984</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>53</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E8" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H8" t="n">
+        <v>211.03</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" t="n">
         <v>1983</v>
       </c>
-      <c r="C8" t="n">
-        <v>4.715</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1985</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>53</v>
+      </c>
+      <c r="D9" t="n">
+        <v>42.02</v>
+      </c>
+      <c r="E9" t="n">
+        <v>743.43</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" t="n">
         <v>1984</v>
       </c>
-      <c r="C9" t="n">
-        <v>43.998</v>
-      </c>
-      <c r="D9" t="n">
-        <v>748.017</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9" t="n">
-        <v>1.304</v>
-      </c>
-      <c r="G9" t="n">
-        <v>149.51</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1986</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>51</v>
+      </c>
+      <c r="D10" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H10" t="n">
+        <v>142.49</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10" t="n">
         <v>1985</v>
       </c>
-      <c r="C10" t="n">
-        <v>31.745</v>
-      </c>
-      <c r="D10" t="n">
-        <v>71.625</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="G10" t="n">
-        <v>156.312</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1987</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>53</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H11" t="n">
+        <v>252.95</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" t="n">
         <v>1986</v>
       </c>
-      <c r="C11" t="n">
-        <v>4.227</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.443</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1988</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>53</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H12" t="n">
+        <v>149</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12" t="n">
         <v>1987</v>
       </c>
-      <c r="C12" t="n">
-        <v>6.861</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1989</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>76</v>
+      </c>
+      <c r="D13" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="E13" t="n">
+        <v>222.37</v>
+      </c>
+      <c r="F13" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H13" t="n">
+        <v>260.68</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13" t="n">
         <v>1988</v>
       </c>
-      <c r="C13" t="n">
-        <v>53.008</v>
-      </c>
-      <c r="D13" t="n">
-        <v>181.489</v>
-      </c>
-      <c r="E13" t="n">
-        <v>51.586</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.281</v>
-      </c>
-      <c r="G13" t="n">
-        <v>278.422</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1990</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="n">
+        <v>81</v>
+      </c>
+      <c r="D14" t="n">
+        <v>48.23</v>
+      </c>
+      <c r="E14" t="n">
+        <v>400.22</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H14" t="n">
+        <v>250.74</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" t="n">
         <v>1989</v>
       </c>
-      <c r="C14" t="n">
-        <v>85.768</v>
-      </c>
-      <c r="D14" t="n">
-        <v>622.863</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="G14" t="n">
-        <v>329.061</v>
-      </c>
-      <c r="H14"/>
-      <c r="I14"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1991</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="n">
+        <v>83</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="E15" t="n">
+        <v>215.83</v>
+      </c>
+      <c r="F15" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>151.93</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" t="n">
         <v>1990</v>
       </c>
-      <c r="C15" t="n">
-        <v>4.702</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1992</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="n">
+        <v>85</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H16" t="n">
+        <v>158.81</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16" t="n">
         <v>1991</v>
       </c>
-      <c r="C16" t="n">
-        <v>9.824</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1993</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="n">
+        <v>86</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>154.15</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17" t="n">
         <v>1992</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1994</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="n">
+        <v>87</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H18" t="n">
+        <v>192.62</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18" t="n">
         <v>1993</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.527</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1995</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>87</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H19" t="n">
+        <v>386.15</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19" t="n">
         <v>1994</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.826</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1996</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>87</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H20" t="n">
+        <v>159.81</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20" t="n">
         <v>1995</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.605</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1997</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="n">
+        <v>84</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H21" t="n">
+        <v>245.59</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21" t="n">
         <v>1996</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.437</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1998</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="n">
+        <v>87</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H22" t="n">
+        <v>141.15</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22" t="n">
         <v>1997</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.509</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>1999</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="n">
+        <v>78</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E23" t="n">
+        <v>80.69</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H23" t="n">
+        <v>192.48</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23" t="n">
         <v>1998</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>2000</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="n">
+        <v>81</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H24" t="n">
+        <v>61.27</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24" t="n">
         <v>1999</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.759</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>2001</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="n">
+        <v>82</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H25" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25" t="n">
         <v>2000</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.209</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>2002</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="n">
+        <v>82</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F26" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H26" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26" t="n">
         <v>2001</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.201</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.884</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>2003</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="n">
+        <v>78</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E27" t="n">
+        <v>36.64</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>85.87</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27" t="n">
         <v>2002</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.086</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>2004</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="n">
+        <v>74</v>
+      </c>
+      <c r="D28" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="E28" t="n">
+        <v>177.72</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>71.23</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28" t="n">
         <v>2003</v>
       </c>
-      <c r="C28" t="n">
-        <v>43.002</v>
-      </c>
-      <c r="D28" t="n">
-        <v>250.619</v>
-      </c>
-      <c r="E28" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G28" t="n">
-        <v>52.201</v>
-      </c>
-      <c r="H28"/>
-      <c r="I28"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>2005</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="n">
+        <v>52</v>
+      </c>
+      <c r="D29" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>110.39</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29" t="n">
         <v>2004</v>
       </c>
-      <c r="C29" t="n">
-        <v>14.964</v>
-      </c>
-      <c r="D29" t="n">
-        <v>10.847</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29" t="n">
-        <v>0.679</v>
-      </c>
-      <c r="G29" t="n">
-        <v>44.039</v>
-      </c>
-      <c r="H29"/>
-      <c r="I29"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>2006</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="n">
+        <v>53</v>
+      </c>
+      <c r="D30" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="E30" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H30" t="n">
+        <v>258.94</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30" t="n">
         <v>2005</v>
       </c>
-      <c r="C30" t="n">
-        <v>23.571</v>
-      </c>
-      <c r="D30" t="n">
-        <v>21.638</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8.581</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.573</v>
-      </c>
-      <c r="G30" t="n">
-        <v>183.849</v>
-      </c>
-      <c r="H30"/>
-      <c r="I30"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>2007</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="n">
+        <v>56</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F31" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>366.45</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31" t="n">
         <v>2006</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.503</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>2008</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="n">
+        <v>56</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H32" t="n">
+        <v>294.73</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32" t="n">
         <v>2007</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>2009</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="n">
+        <v>64</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="H33" t="n">
+        <v>71.55</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33" t="n">
         <v>2008</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.915</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>2010</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="n">
+        <v>75</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H34" t="n">
+        <v>45.97</v>
+      </c>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34" t="n">
         <v>2009</v>
       </c>
-      <c r="C34" t="n">
-        <v>3.672</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>2011</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="n">
+        <v>82</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H35" t="n">
+        <v>73.98</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35" t="n">
         <v>2010</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B36" t="n">
         <v>2011</v>
       </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
       <c r="C36" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2.582</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
-      <c r="I36"/>
+      <c r="I36" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B37" t="n">
         <v>2012</v>
       </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
       <c r="C37" t="n">
-        <v>0.292</v>
+        <v>72</v>
       </c>
       <c r="D37" t="n">
-        <v>0.208</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
+        <v>0.06</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10.9</v>
+      </c>
       <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B38" t="n">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2.978</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
-      <c r="I38"/>
+      <c r="I38" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2011</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2014</v>
+        <v>2013</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
       </c>
       <c r="C39" t="n">
-        <v>8.637</v>
+        <v>79</v>
       </c>
       <c r="D39" t="n">
-        <v>5.88</v>
+        <v>0.22</v>
       </c>
       <c r="E39" t="n">
-        <v>1.504</v>
-      </c>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
+        <v>0.17</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H39" t="n">
+        <v>142.9</v>
+      </c>
       <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2015</v>
+        <v>2013</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
       </c>
       <c r="C40" t="n">
-        <v>7.323</v>
-      </c>
-      <c r="D40" t="n">
-        <v>6.968</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1.967</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40"/>
-      <c r="I40"/>
+      <c r="I40" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2016</v>
+        <v>2014</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>8.813</v>
+        <v>73</v>
       </c>
       <c r="D41" t="n">
-        <v>1.689</v>
+        <v>0.06</v>
       </c>
       <c r="E41" t="n">
-        <v>2.121</v>
-      </c>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
+        <v>0.01</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>68.46</v>
+      </c>
       <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41" t="n">
+        <v>2013</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B42" t="n">
-        <v>2017</v>
+        <v>2014</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
       </c>
       <c r="C42" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1.589</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
-      <c r="I42"/>
+      <c r="I42" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2013</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B43" t="n">
-        <v>2018</v>
+        <v>2015</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
       </c>
       <c r="C43" t="n">
-        <v>5.897</v>
+        <v>76</v>
       </c>
       <c r="D43" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
+        <v>8.57</v>
+      </c>
+      <c r="E43" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H43" t="n">
+        <v>30.66</v>
+      </c>
       <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43" t="n">
+        <v>2014</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2019</v>
+        <v>2015</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
       </c>
       <c r="C44" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.143</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
-      <c r="I44"/>
+      <c r="I44" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2014</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="n">
+        <v>76</v>
+      </c>
+      <c r="D45" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H45" t="n">
+        <v>83.04</v>
+      </c>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="n">
+        <v>35</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="n">
+        <v>76</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H47" t="n">
+        <v>146.95</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="n">
+        <v>36</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="n">
+        <v>77</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H49" t="n">
+        <v>161.39</v>
+      </c>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="n">
+        <v>35</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="n">
+        <v>76</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H51" t="n">
+        <v>137.07</v>
+      </c>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="n">
+        <v>35</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="n">
+        <v>11</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F53" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="n">
+        <v>6</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>2021</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="n">
+        <v>45</v>
+      </c>
+      <c r="D55" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="F55" t="n">
+        <v>41.33</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H55" t="n">
+        <v>140.45</v>
+      </c>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55" t="n">
         <v>2020</v>
       </c>
-      <c r="C45" t="n">
-        <v>4.353</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3.059</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="n">
+        <v>71</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H56" t="n">
+        <v>77.83</v>
+      </c>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="n">
+        <v>35</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2021</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
